--- a/source/python/services/playground/deeplay-invoices/deeplay_invoices/generate_invoice_template.xlsx
+++ b/source/python/services/playground/deeplay-invoices/deeplay_invoices/generate_invoice_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Documents/coding/repos/engineering-friends/lessmore/source/python/services/playground/deeplay-invoices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Documents/coding/repos/engineering-friends/lessmore/source/python/services/playground/deeplay-invoices/deeplay_invoices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E5425-B0DE-224A-A63E-AE0201664BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B156D-AF27-1946-A281-310386B3C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{981E3A87-631F-48E2-B6B6-6753A0DF6DBA}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     </r>
   </si>
   <si>
-    <t>{TODAY_DD.MM.YYYY}</t>
-  </si>
-  <si>
     <t>{N}-{TODAY_MM/YY}</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">For VAT purposes, you confirm that you are not a tax resident of the EU  </t>
+  </si>
+  <si>
+    <t>{TODAY_YYYY-MM-DD}</t>
   </si>
 </sst>
 </file>
@@ -612,12 +612,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,9 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -976,7 +976,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C37"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1043,17 +1043,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1082,53 +1082,53 @@
     </row>
     <row r="18" spans="1:5" ht="9.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="14"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="15"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="14"/>
-      <c r="E23" s="44"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="15"/>
-      <c r="E24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="14"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
@@ -1139,7 +1139,7 @@
         <f>C20</f>
         <v>{INT_AMOUNT}</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
@@ -1150,7 +1150,7 @@
         <f>C26*0</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
@@ -1192,18 +1192,18 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="35" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>30</v>
+      <c r="B35" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C35" s="39"/>
     </row>
@@ -1241,17 +1241,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B35:C37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="E20:E27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B35:C37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.28999999999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/python/services/playground/deeplay-invoices/deeplay_invoices/generate_invoice_template.xlsx
+++ b/source/python/services/playground/deeplay-invoices/deeplay_invoices/generate_invoice_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Documents/coding/repos/engineering-friends/lessmore/source/python/services/playground/deeplay-invoices/deeplay_invoices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B156D-AF27-1946-A281-310386B3C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F912F22-BBE9-A847-9EC9-D6FEF5338128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{981E3A87-631F-48E2-B6B6-6753A0DF6DBA}"/>
   </bookViews>
@@ -126,19 +126,19 @@
     </r>
   </si>
   <si>
-    <t>{N}-{TODAY_MM/YY}</t>
-  </si>
-  <si>
-    <t>Services of Product Development  ({SERVICE_AGREEMENT}, Act of rendered services {N}-{TODAY_MM/YY} from {TODAY_YYYY-MM-DD})</t>
-  </si>
-  <si>
     <t>{INT_AMOUNT}</t>
   </si>
   <si>
     <t xml:space="preserve">For VAT purposes, you confirm that you are not a tax resident of the EU  </t>
   </si>
   <si>
-    <t>{TODAY_YYYY-MM-DD}</t>
+    <t>{TODAY_YYYY_MM_DD}</t>
+  </si>
+  <si>
+    <t>{N}-{TODAY_MM_YY}</t>
+  </si>
+  <si>
+    <t>Services of Product Development  ({SERVICE_AGREEMENT}, Act of rendered services No{N}-{TODAY_MM_YY} from {TODAY_YYYY_MM_DD})</t>
   </si>
 </sst>
 </file>
@@ -612,6 +612,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -632,27 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200BAC79-93A2-4BEB-9C29-8B1DB3D6A92F}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1009,22 +1009,22 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:4" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,53 +1082,53 @@
     </row>
     <row r="18" spans="1:5" ht="9.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="44"/>
+      <c r="A20" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="45"/>
+        <v>26</v>
+      </c>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="14"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="15"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="14"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="15"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="14"/>
-      <c r="E25" s="45"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
@@ -1139,7 +1139,7 @@
         <f>C20</f>
         <v>{INT_AMOUNT}</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
@@ -1150,7 +1150,7 @@
         <f>C26*0</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
@@ -1192,31 +1192,31 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
     </row>
     <row r="35" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="39"/>
+      <c r="B35" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="46"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
     </row>
     <row r="37" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
@@ -1241,18 +1241,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B35:C37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="E20:E27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B35:C37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.28999999999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
